--- a/src/main/webapp/template/driver_appraisal.xlsx
+++ b/src/main/webapp/template/driver_appraisal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8520"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
   <si>
     <t>司机姓名</t>
   </si>
@@ -27,6 +27,12 @@
   <si>
     <t>本月得分</t>
   </si>
+  <si>
+    <t>身份证号</t>
+  </si>
+  <si>
+    <t>车队</t>
+  </si>
 </sst>
 </file>
 
@@ -38,7 +44,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -54,15 +60,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -74,15 +95,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,7 +117,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -105,32 +140,41 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -141,8 +185,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,52 +203,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,13 +224,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,85 +374,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,79 +404,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,6 +433,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -452,37 +511,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,182 +530,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -686,7 +686,7 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -740,6 +740,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1066,29 +1071,30 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="11.775" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.775" style="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.775" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="20.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.25" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1" spans="1:4">
+    <row r="1" ht="20.25" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1100,6 +1106,12 @@
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4">
